--- a/reports/data/November/15112023/15112023.xlsx
+++ b/reports/data/November/15112023/15112023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentsrwthaachende-my.sharepoint.com/personal/ycy3t7jjvtr9b5h8_students_rwth-aachen_de/Documents/RWTH/Biotechnologie M. Sc/Masterarbeit/lmurinus_gem/reports/data/November/15112023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="289" documentId="11_AD4DB114E441178AC67DF4C8EED2F042693EDF13" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0149298A-1E98-4116-8FD2-59DA18CF0C7F}"/>
+  <xr:revisionPtr revIDLastSave="315" documentId="11_AD4DB114E441178AC67DF4C8EED2F042693EDF13" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{734E6F71-4E0C-4CC3-ABA9-73FF411C3306}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FBA_Reduced_Uptake" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="184">
   <si>
     <t>reaction</t>
   </si>
@@ -601,9 +601,6 @@
     <t>Fumarate-e0</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>Reduced</t>
   </si>
   <si>
@@ -637,7 +634,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -674,6 +671,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -707,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -733,18 +736,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="114">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -840,6 +839,13 @@
           <color auto="1"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3234,16 +3240,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>249611</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>25494</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>38378</xdr:rowOff>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>582707</xdr:colOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>358589</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>153778</xdr:rowOff>
+      <xdr:rowOff>120161</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3271,6 +3277,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E45178BF-BBE8-4C97-9614-C0401F86FEC1}" name="Table1" displayName="Table1" ref="A1:BF58" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
   <autoFilter ref="A1:BF58" xr:uid="{E45178BF-BBE8-4C97-9614-C0401F86FEC1}"/>
@@ -3279,7 +3289,7 @@
     <tableColumn id="3" xr3:uid="{B2A825D6-C886-4248-A167-DDD9CCDF0086}" name="metabolite" dataDxfId="110"/>
     <tableColumn id="4" xr3:uid="{E2305941-C6FE-48A4-9F78-2FE388AB30D1}" name="met. names" dataDxfId="109"/>
     <tableColumn id="5" xr3:uid="{AD665930-6800-4968-8414-9C9C47859A69}" name="original" dataDxfId="108"/>
-    <tableColumn id="59" xr3:uid="{8AB122D1-BD08-42A0-9522-16413E0998F7}" name="Column1" dataDxfId="107">
+    <tableColumn id="59" xr3:uid="{8AB122D1-BD08-42A0-9522-16413E0998F7}" name="Type" dataDxfId="107">
       <calculatedColumnFormula array="1">_xlfn.IFS(Table1[[#This Row],[original]]&gt;0,"Uptake",Table1[[#This Row],[original]]=0,"No Flux",Table1[[#This Row],[original]]&lt;0,"Secretion")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{F742B8AD-82A4-40EE-86D7-D1FC704BB410}" name="EX_cpd00001_e0" dataDxfId="106"/>
@@ -3679,21 +3689,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF58"/>
   <sheetViews>
-    <sheetView topLeftCell="AC1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AW49" sqref="AW49"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" customWidth="1"/>
-    <col min="6" max="58" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="58" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3707,7 +3717,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -3869,7 +3879,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -4046,7 +4056,7 @@
         <v>-9.0390859999999993</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -4223,7 +4233,7 @@
         <v>1.2986420000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -4400,7 +4410,7 @@
         <v>-1.7625329999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -4577,7 +4587,7 @@
         <v>-0.14841399999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -4754,7 +4764,7 @@
         <v>0.133525</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -4931,7 +4941,7 @@
         <v>2.2638240000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -5108,7 +5118,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -5285,7 +5295,7 @@
         <v>-0.48302</v>
       </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -5462,7 +5472,7 @@
         <v>7.0609999999999996E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -5639,7 +5649,7 @@
         <v>0.49478899999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -5816,7 +5826,7 @@
         <v>7.0609999999999996E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -5993,7 +6003,7 @@
         <v>0.52034400000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -6170,7 +6180,7 @@
         <v>0.363597</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -6347,7 +6357,7 @@
         <v>0.17627599999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -6524,7 +6534,7 @@
         <v>-1.0602959999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
@@ -6701,7 +6711,7 @@
         <v>7.0609999999999996E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
@@ -6878,7 +6888,7 @@
         <v>0.22723699999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -7055,7 +7065,7 @@
         <v>0.504664</v>
       </c>
     </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -7232,14 +7242,14 @@
         <v>0.27870499999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D21" s="1">
@@ -7409,7 +7419,7 @@
         <v>7.0609999999999996E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -7586,7 +7596,7 @@
         <v>0.14748900000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -7763,7 +7773,7 @@
         <v>7.0609999999999996E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -7940,7 +7950,7 @@
         <v>6.1212999999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -8117,7 +8127,7 @@
         <v>0.197907</v>
       </c>
     </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
@@ -8294,7 +8304,7 @@
         <v>0.124727</v>
       </c>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>108</v>
       </c>
@@ -8471,7 +8481,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -8648,7 +8658,7 @@
         <v>7.8975000000000004E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -8825,7 +8835,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -9002,7 +9012,7 @@
         <v>7.0609999999999996E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -9179,7 +9189,7 @@
         <v>0.47223300000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>17</v>
       </c>
@@ -9356,7 +9366,7 @@
         <v>9.2050000000000007E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -9533,7 +9543,7 @@
         <v>0.18087800000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -9710,7 +9720,7 @@
         <v>0.16661000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>125</v>
       </c>
@@ -9887,14 +9897,14 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="9" t="s">
         <v>129</v>
       </c>
       <c r="D36" s="1">
@@ -10064,7 +10074,7 @@
         <v>7.0609999999999996E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -10241,7 +10251,7 @@
         <v>0.34564699999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>21</v>
       </c>
@@ -10418,7 +10428,7 @@
         <v>0.209873</v>
       </c>
     </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
@@ -10595,7 +10605,7 @@
         <v>9.5038999999999998E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
@@ -10772,7 +10782,7 @@
         <v>1.3820000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -10949,14 +10959,14 @@
         <v>7.0609999999999996E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="9" t="s">
         <v>141</v>
       </c>
       <c r="D42" s="1">
@@ -11126,14 +11136,14 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="43" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D43" s="1">
@@ -11303,7 +11313,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="44" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>144</v>
       </c>
@@ -11480,7 +11490,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>147</v>
       </c>
@@ -11657,7 +11667,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="46" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -11834,7 +11844,7 @@
         <v>7.0609999999999996E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
@@ -12011,7 +12021,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>154</v>
       </c>
@@ -12188,7 +12198,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>26</v>
       </c>
@@ -12365,7 +12375,7 @@
         <v>9.5044000000000003E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>33</v>
       </c>
@@ -12542,7 +12552,7 @@
         <v>0.38570599999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
@@ -12719,14 +12729,14 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="52" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="9" t="s">
         <v>164</v>
       </c>
       <c r="D52" s="1">
@@ -12896,7 +12906,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="53" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>46</v>
       </c>
@@ -13073,7 +13083,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>167</v>
       </c>
@@ -13250,7 +13260,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>42</v>
       </c>
@@ -13427,7 +13437,7 @@
         <v>1.2061000000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>23</v>
       </c>
@@ -13604,7 +13614,7 @@
         <v>7.0609999999999996E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>174</v>
       </c>
@@ -13781,7 +13791,7 @@
         <v>-0.96796099999999996</v>
       </c>
     </row>
-    <row r="58" spans="1:58" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>177</v>
       </c>
@@ -13960,19 +13970,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:BF58">
-    <cfRule type="expression" dxfId="15" priority="1">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>MATCH($A2,F$1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="13" priority="5">
       <formula>$D2=F2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="8">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>ABS($D2)&lt;ABS(F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>ABS($D2)&gt;F2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13988,27 +13998,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4629FF2D-D16B-4FA6-A122-FC72BC27000F}">
   <dimension ref="A1:AG62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="16" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.453125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.26953125" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="13.453125" hidden="1" customWidth="1"/>
-    <col min="23" max="33" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="16" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" hidden="1" customWidth="1"/>
+    <col min="23" max="33" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -14022,7 +14032,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>19</v>
@@ -14070,7 +14080,7 @@
         <v>3</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W1" s="4" t="s">
         <v>19</v>
@@ -14106,7 +14116,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -14217,7 +14227,7 @@
         <v>Increased</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -14328,7 +14338,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>50</v>
       </c>
@@ -14439,7 +14449,7 @@
         <v>Increased</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -14550,7 +14560,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -14661,7 +14671,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -14772,7 +14782,7 @@
         <v>Increased</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -14883,7 +14893,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -14994,7 +15004,7 @@
         <v>Reduced</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -15105,7 +15115,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -15216,7 +15226,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -15327,7 +15337,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -15438,7 +15448,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -15549,7 +15559,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -15660,7 +15670,7 @@
         <v>Increased</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>85</v>
       </c>
@@ -15771,7 +15781,7 @@
         <v>Reduced</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -15882,7 +15892,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -15993,7 +16003,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -16104,7 +16114,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -16215,7 +16225,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -16326,7 +16336,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
@@ -16437,7 +16447,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -16548,7 +16558,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -16659,7 +16669,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
@@ -16770,7 +16780,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>34</v>
       </c>
@@ -16881,7 +16891,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>108</v>
       </c>
@@ -16992,7 +17002,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
@@ -17103,7 +17113,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
@@ -17214,7 +17224,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
@@ -17325,7 +17335,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
@@ -17436,7 +17446,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
@@ -17547,7 +17557,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>18</v>
       </c>
@@ -17658,7 +17668,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>39</v>
       </c>
@@ -17769,7 +17779,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>125</v>
       </c>
@@ -17880,7 +17890,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
@@ -17991,7 +18001,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -18102,7 +18112,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
@@ -18213,7 +18223,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>55</v>
       </c>
@@ -18324,7 +18334,7 @@
         <v>Reduced</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>56</v>
       </c>
@@ -18435,7 +18445,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>43</v>
       </c>
@@ -18546,7 +18556,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>52</v>
       </c>
@@ -18657,7 +18667,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>51</v>
       </c>
@@ -18768,7 +18778,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>144</v>
       </c>
@@ -18879,7 +18889,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>147</v>
       </c>
@@ -18990,7 +19000,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>47</v>
       </c>
@@ -19101,7 +19111,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>22</v>
       </c>
@@ -19212,7 +19222,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>154</v>
       </c>
@@ -19323,7 +19333,7 @@
         <v>Reduced</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>26</v>
       </c>
@@ -19434,7 +19444,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>33</v>
       </c>
@@ -19545,7 +19555,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -19656,7 +19666,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
@@ -19767,7 +19777,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>46</v>
       </c>
@@ -19878,7 +19888,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>167</v>
       </c>
@@ -19989,7 +19999,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>42</v>
       </c>
@@ -20100,7 +20110,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>23</v>
       </c>
@@ -20211,7 +20221,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>174</v>
       </c>
@@ -20322,7 +20332,7 @@
         <v>Same</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>177</v>
       </c>
@@ -20433,9 +20443,9 @@
         <v>Increased</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="V60" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W60">
         <f>COUNTIF(Table35[EX_cpd00149_e0],"Reduced")</f>
@@ -20482,9 +20492,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="V61" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="W61">
         <f>COUNTIF(Table35[EX_cpd00149_e0],"Same")</f>
@@ -20531,9 +20541,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="V62" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="W62">
         <f>COUNTIF(Table35[EX_cpd00149_e0],"Increased")</f>
@@ -20581,43 +20591,43 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:E58">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="Secretion">
+      <formula>NOT(ISERROR(SEARCH("Secretion",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F2:P58">
-    <cfRule type="expression" dxfId="10" priority="16">
+    <cfRule type="expression" dxfId="9" priority="16">
       <formula>MATCH($A2,F$1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="18">
+    <cfRule type="expression" dxfId="7" priority="18">
       <formula>$D2=F2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="19">
+    <cfRule type="expression" dxfId="6" priority="19">
       <formula>ABS($D2)&lt;ABS(F2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="20">
+    <cfRule type="expression" dxfId="5" priority="20">
       <formula>ABS($D2)&gt;F2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W2:AG58">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>F2 = 0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="Increased">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="Increased">
       <formula>NOT(ISERROR(SEARCH("Increased",W2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="Reduced">
+    <cfRule type="containsText" dxfId="2" priority="8" operator="containsText" text="Reduced">
       <formula>NOT(ISERROR(SEARCH("Reduced",W2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="10" operator="containsText" text="Same">
+    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="Same">
       <formula>NOT(ISERROR(SEARCH("Same",W2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>MATCH($A2,W$1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E58">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Secretion">
-      <formula>NOT(ISERROR(SEARCH("Secretion",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reports/data/November/15112023/15112023.xlsx
+++ b/reports/data/November/15112023/15112023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentsrwthaachende-my.sharepoint.com/personal/ycy3t7jjvtr9b5h8_students_rwth-aachen_de/Documents/RWTH/Biotechnologie M. Sc/Masterarbeit/lmurinus_gem/reports/data/November/15112023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="315" documentId="11_AD4DB114E441178AC67DF4C8EED2F042693EDF13" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{734E6F71-4E0C-4CC3-ABA9-73FF411C3306}"/>
+  <xr:revisionPtr revIDLastSave="326" documentId="11_AD4DB114E441178AC67DF4C8EED2F042693EDF13" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCAC44E7-6C05-43BC-A892-DB4EF0C258E8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FBA_Reduced_Uptake" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="184">
   <si>
     <t>reaction</t>
   </si>
@@ -3689,8 +3689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BF58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13998,8 +13998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4629FF2D-D16B-4FA6-A122-FC72BC27000F}">
   <dimension ref="A1:AG62"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R64" sqref="R64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20444,6 +20444,9 @@
       </c>
     </row>
     <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="T60" t="s">
+        <v>180</v>
+      </c>
       <c r="V60" s="6" t="s">
         <v>180</v>
       </c>
@@ -20493,6 +20496,9 @@
       </c>
     </row>
     <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="T61" t="s">
+        <v>182</v>
+      </c>
       <c r="V61" s="7" t="s">
         <v>182</v>
       </c>
@@ -20542,6 +20548,9 @@
       </c>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="T62" t="s">
+        <v>183</v>
+      </c>
       <c r="V62" s="8" t="s">
         <v>183</v>
       </c>
